--- a/Code/Results/Cases/Case_2_76/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_76/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.52313498619166</v>
+        <v>7.594773609502983</v>
       </c>
       <c r="C2">
-        <v>7.000011158577596</v>
+        <v>5.602546635525333</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>18.33882638057215</v>
+        <v>22.42759765640945</v>
       </c>
       <c r="F2">
-        <v>29.07549417065464</v>
+        <v>38.62044359518265</v>
       </c>
       <c r="G2">
-        <v>16.7853688642698</v>
+        <v>25.05905047559544</v>
       </c>
       <c r="H2">
-        <v>7.967225791610125</v>
+        <v>13.5361465823983</v>
       </c>
       <c r="I2">
-        <v>11.84919830741378</v>
+        <v>19.58758553010006</v>
       </c>
       <c r="J2">
-        <v>4.879482960263941</v>
+        <v>7.894537636169227</v>
       </c>
       <c r="K2">
-        <v>11.35980282524073</v>
+        <v>8.530476119556415</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.17441044635186</v>
+        <v>17.66037444595479</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.21327205457615</v>
+        <v>20.07952932358564</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.81109725474435</v>
+        <v>7.218914571698801</v>
       </c>
       <c r="C3">
-        <v>6.727564331604359</v>
+        <v>5.488478851139501</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>17.52304608754506</v>
+        <v>22.31804231308687</v>
       </c>
       <c r="F3">
-        <v>28.21280942035724</v>
+        <v>38.59631939499504</v>
       </c>
       <c r="G3">
-        <v>16.95546246931116</v>
+        <v>25.21443010011415</v>
       </c>
       <c r="H3">
-        <v>8.091349144994608</v>
+        <v>13.58954845042495</v>
       </c>
       <c r="I3">
-        <v>12.12410551535782</v>
+        <v>19.69309559922957</v>
       </c>
       <c r="J3">
-        <v>4.910047758466332</v>
+        <v>7.905682409279717</v>
       </c>
       <c r="K3">
-        <v>10.82807932831151</v>
+        <v>8.289018222716368</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.38273736781433</v>
+        <v>17.50887057974801</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.40954681897302</v>
+        <v>20.17891103143022</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.35074289518024</v>
+        <v>6.996249169979955</v>
       </c>
       <c r="C4">
-        <v>6.554513704992209</v>
+        <v>5.416817946187014</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>17.01332687260446</v>
+        <v>22.2552244398679</v>
       </c>
       <c r="F4">
-        <v>27.69494184645273</v>
+        <v>38.59146542948385</v>
       </c>
       <c r="G4">
-        <v>17.08522482049485</v>
+        <v>25.3179494749857</v>
       </c>
       <c r="H4">
-        <v>8.171673690211687</v>
+        <v>13.62430713073114</v>
       </c>
       <c r="I4">
-        <v>12.30013914025159</v>
+        <v>19.7614876931274</v>
       </c>
       <c r="J4">
-        <v>4.929491254307219</v>
+        <v>7.912911993165743</v>
       </c>
       <c r="K4">
-        <v>10.4873052169869</v>
+        <v>8.135904593211359</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.87890689478916</v>
+        <v>17.41785916199772</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.54005589726248</v>
+        <v>20.24397946105784</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.1573895194432</v>
+        <v>6.9034389580335</v>
       </c>
       <c r="C5">
-        <v>6.482612791134232</v>
+        <v>5.387234706936969</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16.80368393104407</v>
+        <v>22.23076418087276</v>
       </c>
       <c r="F5">
-        <v>27.48713489700217</v>
+        <v>38.591994240939</v>
       </c>
       <c r="G5">
-        <v>17.14410162639329</v>
+        <v>25.36216683473507</v>
       </c>
       <c r="H5">
-        <v>8.205418758522516</v>
+        <v>13.63896752765086</v>
       </c>
       <c r="I5">
-        <v>12.37366347959864</v>
+        <v>19.79026673979159</v>
       </c>
       <c r="J5">
-        <v>4.937586541102956</v>
+        <v>7.915955593253583</v>
       </c>
       <c r="K5">
-        <v>10.34494676620459</v>
+        <v>8.072348683807522</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.66935300018167</v>
+        <v>17.38131027644443</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.59564941703661</v>
+        <v>20.27151296389938</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.12493813088504</v>
+        <v>6.887906274113076</v>
       </c>
       <c r="C6">
-        <v>6.470592460501821</v>
+        <v>5.382300251651582</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16.76876569007024</v>
+        <v>22.22677188146927</v>
       </c>
       <c r="F6">
-        <v>27.45283114537979</v>
+        <v>38.59223349950204</v>
       </c>
       <c r="G6">
-        <v>17.15422971224532</v>
+        <v>25.36963160004101</v>
       </c>
       <c r="H6">
-        <v>8.21108263711834</v>
+        <v>13.64143184908957</v>
       </c>
       <c r="I6">
-        <v>12.38597938600594</v>
+        <v>19.79510040228066</v>
       </c>
       <c r="J6">
-        <v>4.938941190749111</v>
+        <v>7.916466876298786</v>
       </c>
       <c r="K6">
-        <v>10.32110086910137</v>
+        <v>8.061727029148576</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.63430803494008</v>
+        <v>17.37527485998144</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.60502337408944</v>
+        <v>20.27614633518924</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.34815846174863</v>
+        <v>6.995005732060852</v>
       </c>
       <c r="C7">
-        <v>6.553549519553206</v>
+        <v>5.416420481359596</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>17.01050694850564</v>
+        <v>22.25488992560476</v>
       </c>
       <c r="F7">
-        <v>27.69212588065789</v>
+        <v>38.59146240893893</v>
       </c>
       <c r="G7">
-        <v>17.08599505056285</v>
+        <v>25.3185375878033</v>
       </c>
       <c r="H7">
-        <v>8.172124717022653</v>
+        <v>13.62450283700764</v>
       </c>
       <c r="I7">
-        <v>12.30112350831742</v>
+        <v>19.76187213628571</v>
       </c>
       <c r="J7">
-        <v>4.929599731829628</v>
+        <v>7.912952645158825</v>
       </c>
       <c r="K7">
-        <v>10.48539930154811</v>
+        <v>8.135052072550444</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.87609761656197</v>
+        <v>17.41736402574745</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.54079602335796</v>
+        <v>20.24434666759866</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.28246662063763</v>
+        <v>7.462324814130389</v>
       </c>
       <c r="C8">
-        <v>6.907306922912292</v>
+        <v>5.563568815925613</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>18.05954014445234</v>
+        <v>22.38891173574743</v>
       </c>
       <c r="F8">
-        <v>28.77573845693126</v>
+        <v>38.61006089374312</v>
       </c>
       <c r="G8">
-        <v>16.83853502437888</v>
+        <v>25.11093592411933</v>
       </c>
       <c r="H8">
-        <v>8.009156101993998</v>
+        <v>13.55415112279882</v>
       </c>
       <c r="I8">
-        <v>11.94246336884774</v>
+        <v>19.62321726006273</v>
       </c>
       <c r="J8">
-        <v>4.889882363378581</v>
+        <v>7.898300261943528</v>
       </c>
       <c r="K8">
-        <v>11.17948789764669</v>
+        <v>8.448264419146524</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.9052440159957</v>
+        <v>17.60773823555103</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.2788080839087</v>
+        <v>20.11295590260344</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.92877168148415</v>
+        <v>8.368074155527266</v>
       </c>
       <c r="C9">
-        <v>7.552701146504197</v>
+        <v>5.838121765437099</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>20.03584355643705</v>
+        <v>22.68609888210649</v>
       </c>
       <c r="F9">
-        <v>30.98363851451203</v>
+        <v>38.72534833190472</v>
       </c>
       <c r="G9">
-        <v>16.57121241712463</v>
+        <v>24.76859894942467</v>
       </c>
       <c r="H9">
-        <v>7.723316991515794</v>
+        <v>13.43179072952696</v>
       </c>
       <c r="I9">
-        <v>11.29826894315088</v>
+        <v>19.37988609310141</v>
       </c>
       <c r="J9">
-        <v>4.81728128283768</v>
+        <v>7.872623003976971</v>
       </c>
       <c r="K9">
-        <v>12.42352027339001</v>
+        <v>9.021522394556214</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.77489051530427</v>
+        <v>17.9955442734629</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.84946886916745</v>
+        <v>19.88742560650606</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.02323039020942</v>
+        <v>8.968994313442431</v>
       </c>
       <c r="C10">
-        <v>7.994580270159594</v>
+        <v>6.029888147105962</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>21.42677642311418</v>
+        <v>22.92404823457025</v>
       </c>
       <c r="F10">
-        <v>32.64276038221788</v>
+        <v>38.85771355008528</v>
       </c>
       <c r="G10">
-        <v>16.53122664287407</v>
+        <v>24.55708336931445</v>
       </c>
       <c r="H10">
-        <v>7.53563911925042</v>
+        <v>13.35136060265258</v>
       </c>
       <c r="I10">
-        <v>10.8639139086333</v>
+        <v>19.21844218284438</v>
       </c>
       <c r="J10">
-        <v>4.767040702099104</v>
+        <v>7.855604373484957</v>
       </c>
       <c r="K10">
-        <v>13.26235327364449</v>
+        <v>9.414850705832615</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.18446629825916</v>
+        <v>18.28726027095177</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>11.59328521096513</v>
+        <v>19.74132797419729</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.4960013163374</v>
+        <v>9.22802594857529</v>
       </c>
       <c r="C11">
-        <v>8.188145717810833</v>
+        <v>6.114698418609207</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>22.04452107862287</v>
+        <v>23.03624065245907</v>
       </c>
       <c r="F11">
-        <v>33.40308338143397</v>
+        <v>38.92815711835993</v>
       </c>
       <c r="G11">
-        <v>16.55200819982173</v>
+        <v>24.46965591271798</v>
       </c>
       <c r="H11">
-        <v>7.455567654386148</v>
+        <v>13.3168181955866</v>
       </c>
       <c r="I11">
-        <v>10.67559601730275</v>
+        <v>19.14874290209453</v>
       </c>
       <c r="J11">
-        <v>4.744830106175852</v>
+        <v>7.848259577002289</v>
       </c>
       <c r="K11">
-        <v>13.62710913652133</v>
+        <v>9.587224129739877</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.8297433786568</v>
+        <v>18.42100377465212</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>11.49153331732897</v>
+        <v>19.67912430822642</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.67141657591347</v>
+        <v>9.324034034912824</v>
       </c>
       <c r="C12">
-        <v>8.260344583950816</v>
+        <v>6.146444604938521</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>22.27618322169729</v>
+        <v>23.079264507856</v>
       </c>
       <c r="F12">
-        <v>33.69162552552393</v>
+        <v>38.95628971968278</v>
       </c>
       <c r="G12">
-        <v>16.56587922179684</v>
+        <v>24.43782298496649</v>
       </c>
       <c r="H12">
-        <v>7.426054173022443</v>
+        <v>13.30403146667026</v>
       </c>
       <c r="I12">
-        <v>10.60570497873115</v>
+        <v>19.12288656624877</v>
       </c>
       <c r="J12">
-        <v>4.736509821808594</v>
+        <v>7.845535125533148</v>
       </c>
       <c r="K12">
-        <v>13.76278167236067</v>
+        <v>9.651517746965215</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.06914018180757</v>
+        <v>18.47176128638434</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>11.45530661588072</v>
+        <v>19.65618209756795</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.63379841207459</v>
+        <v>9.303449835467315</v>
       </c>
       <c r="C13">
-        <v>8.244844597894058</v>
+        <v>6.139624251281804</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>22.22639274247685</v>
+        <v>23.06997504481071</v>
       </c>
       <c r="F13">
-        <v>33.6294575754029</v>
+        <v>38.95016629549443</v>
       </c>
       <c r="G13">
-        <v>16.56261879703297</v>
+        <v>24.44462196225364</v>
       </c>
       <c r="H13">
-        <v>7.432373722812027</v>
+        <v>13.3067722604396</v>
       </c>
       <c r="I13">
-        <v>10.62069251050307</v>
+        <v>19.12843130908646</v>
       </c>
       <c r="J13">
-        <v>4.738297760544055</v>
+        <v>7.846119359581713</v>
       </c>
       <c r="K13">
-        <v>13.73367165400334</v>
+        <v>9.637715135283509</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.01780117658206</v>
+        <v>18.46082537939</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.46300320071142</v>
+        <v>19.66109583737756</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.51050523263907</v>
+        <v>9.235966411847366</v>
       </c>
       <c r="C14">
-        <v>8.19410775691798</v>
+        <v>6.11731771851834</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>22.06362595516627</v>
+        <v>23.03976961594649</v>
       </c>
       <c r="F14">
-        <v>33.42681032327085</v>
+        <v>38.93044248747621</v>
       </c>
       <c r="G14">
-        <v>16.55302688570964</v>
+        <v>24.46701141132653</v>
       </c>
       <c r="H14">
-        <v>7.453123094071835</v>
+        <v>13.31576033930451</v>
       </c>
       <c r="I14">
-        <v>10.66981700659771</v>
+        <v>19.14660492296904</v>
       </c>
       <c r="J14">
-        <v>4.744143793028496</v>
+        <v>7.8480342964414</v>
       </c>
       <c r="K14">
-        <v>13.63832030120164</v>
+        <v>9.59253345775867</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.84953764876914</v>
+        <v>18.42517760247259</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.48850566736441</v>
+        <v>19.67722454899845</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.43451414149501</v>
+        <v>9.194359247426835</v>
       </c>
       <c r="C15">
-        <v>8.162885938540592</v>
+        <v>6.103605593256697</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>21.96362902306543</v>
+        <v>23.02133724682988</v>
       </c>
       <c r="F15">
-        <v>33.30275953655239</v>
+        <v>38.91855040375157</v>
       </c>
       <c r="G15">
-        <v>16.54794462850628</v>
+        <v>24.48089178845801</v>
       </c>
       <c r="H15">
-        <v>7.465939320986041</v>
+        <v>13.32130403707739</v>
       </c>
       <c r="I15">
-        <v>10.70009507849418</v>
+        <v>19.15780672927851</v>
       </c>
       <c r="J15">
-        <v>4.747736359793684</v>
+        <v>7.849214648972366</v>
       </c>
       <c r="K15">
-        <v>13.57959465591505</v>
+        <v>9.564729630923775</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.74582790832324</v>
+        <v>18.40335574126955</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.50443231328194</v>
+        <v>19.68718370270821</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.9918281237811</v>
+        <v>8.951775725543754</v>
       </c>
       <c r="C16">
-        <v>7.981777811700651</v>
+        <v>6.024294975667384</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>21.38609367498341</v>
+        <v>22.91679320992696</v>
       </c>
       <c r="F16">
-        <v>32.59316790626209</v>
+        <v>38.85331460608744</v>
       </c>
       <c r="G16">
-        <v>16.53068708308636</v>
+        <v>24.56297470404293</v>
       </c>
       <c r="H16">
-        <v>7.54098244407858</v>
+        <v>13.35365915668825</v>
       </c>
       <c r="I16">
-        <v>10.87641464390698</v>
+        <v>19.22307242451296</v>
       </c>
       <c r="J16">
-        <v>4.768504988792314</v>
+        <v>7.856092343119636</v>
       </c>
       <c r="K16">
-        <v>13.23817393804833</v>
+        <v>9.403450475367684</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.1415990020034</v>
+        <v>18.27853751568466</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>11.60024739822362</v>
+        <v>19.74547885939008</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.71382039841452</v>
+        <v>8.799271806434271</v>
       </c>
       <c r="C17">
-        <v>7.868743593896242</v>
+        <v>5.975003990763542</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>21.0278669751442</v>
+        <v>22.85364991604744</v>
       </c>
       <c r="F17">
-        <v>32.15915008191426</v>
+        <v>38.81590542316158</v>
       </c>
       <c r="G17">
-        <v>16.53036952374601</v>
+        <v>24.6155886457056</v>
       </c>
       <c r="H17">
-        <v>7.588407899182366</v>
+        <v>13.37403160338387</v>
       </c>
       <c r="I17">
-        <v>10.9870134129377</v>
+        <v>19.26406868364441</v>
       </c>
       <c r="J17">
-        <v>4.781409278129653</v>
+        <v>7.860413116316048</v>
       </c>
       <c r="K17">
-        <v>13.02438612476591</v>
+        <v>9.302804018237381</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.76203011561567</v>
+        <v>18.20220509236995</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>11.66293649339384</v>
+        <v>19.7823319149596</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.55155447105102</v>
+        <v>8.71020767850141</v>
       </c>
       <c r="C18">
-        <v>7.803029638003014</v>
+        <v>5.946425999456067</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>20.820417259509</v>
+        <v>22.81770495861119</v>
       </c>
       <c r="F18">
-        <v>31.9100487072482</v>
+        <v>38.79535250055734</v>
       </c>
       <c r="G18">
-        <v>16.53383206830231</v>
+        <v>24.64667776340059</v>
       </c>
       <c r="H18">
-        <v>7.61618200345008</v>
+        <v>13.38594186779433</v>
       </c>
       <c r="I18">
-        <v>11.05149356831982</v>
+        <v>19.28800094606447</v>
       </c>
       <c r="J18">
-        <v>4.78889224860015</v>
+        <v>7.86293569814977</v>
       </c>
       <c r="K18">
-        <v>12.89983784203872</v>
+        <v>9.244299988401124</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.54042382123699</v>
+        <v>18.15840089709386</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.70037392727661</v>
+        <v>19.80392944223079</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.49620834081179</v>
+        <v>8.679821312665172</v>
       </c>
       <c r="C19">
-        <v>7.780660844488492</v>
+        <v>5.936711635312024</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>20.74994043741853</v>
+        <v>22.80559960306823</v>
       </c>
       <c r="F19">
-        <v>31.82580489610273</v>
+        <v>38.78855956805618</v>
       </c>
       <c r="G19">
-        <v>16.53561811263883</v>
+        <v>24.65734574280392</v>
       </c>
       <c r="H19">
-        <v>7.625669779994124</v>
+        <v>13.39000756660071</v>
       </c>
       <c r="I19">
-        <v>11.07347187099402</v>
+        <v>19.29616453406897</v>
       </c>
       <c r="J19">
-        <v>4.791436356753179</v>
+        <v>7.863796229489564</v>
       </c>
       <c r="K19">
-        <v>12.85739715054617</v>
+        <v>9.22438715497389</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.4648251259898</v>
+        <v>18.1435879130847</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>11.71328147576733</v>
+        <v>19.8113107769959</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.74365942611954</v>
+        <v>8.815645779876183</v>
       </c>
       <c r="C20">
-        <v>7.88084892277913</v>
+        <v>5.980274762383481</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>21.06614733289374</v>
+        <v>22.86033318730681</v>
       </c>
       <c r="F20">
-        <v>32.20529811270432</v>
+        <v>38.81978803421748</v>
       </c>
       <c r="G20">
-        <v>16.53002313093622</v>
+        <v>24.60990214345015</v>
       </c>
       <c r="H20">
-        <v>7.583307710327699</v>
+        <v>13.37184299437668</v>
       </c>
       <c r="I20">
-        <v>10.97514970285322</v>
+        <v>19.25966810680963</v>
       </c>
       <c r="J20">
-        <v>4.7800293214886</v>
+        <v>7.859949294879271</v>
       </c>
       <c r="K20">
-        <v>13.04730831781725</v>
+        <v>9.313581928655189</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.80277575911341</v>
+        <v>18.21032071386303</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>11.6561190288441</v>
+        <v>19.77836737527851</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.54681746640353</v>
+        <v>9.255844564887578</v>
       </c>
       <c r="C21">
-        <v>8.209040458199997</v>
+        <v>6.123879878326207</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>22.11149667147338</v>
+        <v>23.04862728719001</v>
       </c>
       <c r="F21">
-        <v>33.48631706693732</v>
+        <v>38.93619642178712</v>
       </c>
       <c r="G21">
-        <v>16.5556783055451</v>
+        <v>24.46040043567416</v>
       </c>
       <c r="H21">
-        <v>7.447006189191713</v>
+        <v>13.31311235424259</v>
       </c>
       <c r="I21">
-        <v>10.65534861476338</v>
+        <v>19.14125231746783</v>
       </c>
       <c r="J21">
-        <v>4.742424236791837</v>
+        <v>7.847470291658666</v>
       </c>
       <c r="K21">
-        <v>13.6663940759562</v>
+        <v>9.605831304237999</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.89909470909323</v>
+        <v>18.43564548691619</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>11.48095093983872</v>
+        <v>19.67247051275484</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.05067292058539</v>
+        <v>9.531400524001347</v>
       </c>
       <c r="C22">
-        <v>8.417110571559396</v>
+        <v>6.21557104663683</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>22.78146506983019</v>
+        <v>23.17481623936514</v>
       </c>
       <c r="F22">
-        <v>34.32711416359571</v>
+        <v>39.02076161234474</v>
       </c>
       <c r="G22">
-        <v>16.60759694053367</v>
+        <v>24.37012247708649</v>
       </c>
       <c r="H22">
-        <v>7.362658984630984</v>
+        <v>13.27644038808979</v>
       </c>
       <c r="I22">
-        <v>10.4546742212078</v>
+        <v>19.0669919961428</v>
       </c>
       <c r="J22">
-        <v>4.718372875459577</v>
+        <v>7.839645879002993</v>
       </c>
       <c r="K22">
-        <v>14.0566983524148</v>
+        <v>9.791103456077757</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.58674845839628</v>
+        <v>18.58354217920546</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>11.37999390271048</v>
+        <v>19.60683406084135</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.78368141994115</v>
+        <v>9.385447557255524</v>
       </c>
       <c r="C23">
-        <v>8.306655370115418</v>
+        <v>6.166838177437064</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>22.42512868731424</v>
+        <v>23.10719034278075</v>
       </c>
       <c r="F23">
-        <v>33.87808894897064</v>
+        <v>38.97485624063095</v>
       </c>
       <c r="G23">
-        <v>16.57654429812264</v>
+        <v>24.4176224804531</v>
       </c>
       <c r="H23">
-        <v>7.407227173554684</v>
+        <v>13.29585640519746</v>
       </c>
       <c r="I23">
-        <v>10.56098226433588</v>
+        <v>19.10633989595254</v>
       </c>
       <c r="J23">
-        <v>4.731162197685797</v>
+        <v>7.84379167459342</v>
       </c>
       <c r="K23">
-        <v>13.84970263158297</v>
+        <v>9.692756030137707</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.22235350870372</v>
+        <v>18.50456139335996</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>11.43257642352147</v>
+        <v>19.64153822680873</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.73017678768869</v>
+        <v>8.808247426910929</v>
       </c>
       <c r="C24">
-        <v>7.875378372225021</v>
+        <v>5.97789259233352</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>21.04884544810341</v>
+        <v>22.85731056627283</v>
       </c>
       <c r="F24">
-        <v>32.18443326200035</v>
+        <v>38.81802973271061</v>
       </c>
       <c r="G24">
-        <v>16.53016841179669</v>
+        <v>24.61247039323921</v>
       </c>
       <c r="H24">
-        <v>7.58561192494417</v>
+        <v>13.37283184810664</v>
       </c>
       <c r="I24">
-        <v>10.9805105034694</v>
+        <v>19.26165647690283</v>
       </c>
       <c r="J24">
-        <v>4.780652999990374</v>
+        <v>7.860158868570645</v>
       </c>
       <c r="K24">
-        <v>13.03695029637484</v>
+        <v>9.308711229146359</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.78436520836609</v>
+        <v>18.20665138826028</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>11.65919686766109</v>
+        <v>19.78015846592855</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.50353200121695</v>
+        <v>8.134243374130893</v>
       </c>
       <c r="C25">
-        <v>7.383601082589768</v>
+        <v>5.765498443953997</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>19.51121080003515</v>
+        <v>22.60215593791549</v>
       </c>
       <c r="F25">
-        <v>30.37892895436523</v>
+        <v>38.68575416976184</v>
       </c>
       <c r="G25">
-        <v>16.61777390318687</v>
+        <v>24.85422319978396</v>
       </c>
       <c r="H25">
-        <v>7.796863962342818</v>
+        <v>13.46322683617695</v>
       </c>
       <c r="I25">
-        <v>11.46594542643198</v>
+        <v>19.44266398784188</v>
       </c>
       <c r="J25">
-        <v>4.836368402543672</v>
+        <v>7.879243936304917</v>
       </c>
       <c r="K25">
-        <v>12.09995513744312</v>
+        <v>8.871140689188458</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.28593853818757</v>
+        <v>17.88929003558171</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>11.95581926814482</v>
+        <v>19.94499688080817</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_76/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_76/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.594773609502983</v>
+        <v>12.52313498619163</v>
       </c>
       <c r="C2">
-        <v>5.602546635525333</v>
+        <v>7.000011158577584</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>22.42759765640945</v>
+        <v>18.33882638057218</v>
       </c>
       <c r="F2">
-        <v>38.62044359518265</v>
+        <v>29.07549417065481</v>
       </c>
       <c r="G2">
-        <v>25.05905047559544</v>
+        <v>16.78536886426997</v>
       </c>
       <c r="H2">
-        <v>13.5361465823983</v>
+        <v>7.967225791610256</v>
       </c>
       <c r="I2">
-        <v>19.58758553010006</v>
+        <v>11.84919830741392</v>
       </c>
       <c r="J2">
-        <v>7.894537636169227</v>
+        <v>4.879482960263942</v>
       </c>
       <c r="K2">
-        <v>8.530476119556415</v>
+        <v>11.3598028252407</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.66037444595479</v>
+        <v>15.17441044635189</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.07952932358564</v>
+        <v>12.21327205457626</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.218914571698801</v>
+        <v>11.81109725474439</v>
       </c>
       <c r="C3">
-        <v>5.488478851139501</v>
+        <v>6.727564331604253</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>22.31804231308687</v>
+        <v>17.52304608754513</v>
       </c>
       <c r="F3">
-        <v>38.59631939499504</v>
+        <v>28.21280942035739</v>
       </c>
       <c r="G3">
-        <v>25.21443010011415</v>
+        <v>16.9554624693114</v>
       </c>
       <c r="H3">
-        <v>13.58954845042495</v>
+        <v>8.091349144994551</v>
       </c>
       <c r="I3">
-        <v>19.69309559922957</v>
+        <v>12.12410551535776</v>
       </c>
       <c r="J3">
-        <v>7.905682409279717</v>
+        <v>4.910047758466329</v>
       </c>
       <c r="K3">
-        <v>8.289018222716368</v>
+        <v>10.82807932831149</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.50887057974801</v>
+        <v>14.38273736781436</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>20.17891103143022</v>
+        <v>12.40954681897307</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.996249169979955</v>
+        <v>11.35074289518024</v>
       </c>
       <c r="C4">
-        <v>5.416817946187014</v>
+        <v>6.554513704992162</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>22.2552244398679</v>
+        <v>17.01332687260441</v>
       </c>
       <c r="F4">
-        <v>38.59146542948385</v>
+        <v>27.69494184645281</v>
       </c>
       <c r="G4">
-        <v>25.3179494749857</v>
+        <v>17.08522482049517</v>
       </c>
       <c r="H4">
-        <v>13.62430713073114</v>
+        <v>8.171673690211751</v>
       </c>
       <c r="I4">
-        <v>19.7614876931274</v>
+        <v>12.30013914025163</v>
       </c>
       <c r="J4">
-        <v>7.912911993165743</v>
+        <v>4.929491254307218</v>
       </c>
       <c r="K4">
-        <v>8.135904593211359</v>
+        <v>10.48730521698686</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.41785916199772</v>
+        <v>13.87890689478915</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>20.24397946105784</v>
+        <v>12.54005589726259</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.9034389580335</v>
+        <v>11.15738951944323</v>
       </c>
       <c r="C5">
-        <v>5.387234706936969</v>
+        <v>6.482612791134028</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22.23076418087276</v>
+        <v>16.80368393104409</v>
       </c>
       <c r="F5">
-        <v>38.591994240939</v>
+        <v>27.48713489700214</v>
       </c>
       <c r="G5">
-        <v>25.36216683473507</v>
+        <v>17.14410162639318</v>
       </c>
       <c r="H5">
-        <v>13.63896752765086</v>
+        <v>8.205418758522516</v>
       </c>
       <c r="I5">
-        <v>19.79026673979159</v>
+        <v>12.37366347959854</v>
       </c>
       <c r="J5">
-        <v>7.915955593253583</v>
+        <v>4.937586541102991</v>
       </c>
       <c r="K5">
-        <v>8.072348683807522</v>
+        <v>10.34494676620456</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.38131027644443</v>
+        <v>13.66935300018168</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>20.27151296389938</v>
+        <v>12.59564941703654</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.887906274113076</v>
+        <v>11.12493813088505</v>
       </c>
       <c r="C6">
-        <v>5.382300251651582</v>
+        <v>6.470592460502002</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22.22677188146927</v>
+        <v>16.76876569007031</v>
       </c>
       <c r="F6">
-        <v>38.59223349950204</v>
+        <v>27.45283114537975</v>
       </c>
       <c r="G6">
-        <v>25.36963160004101</v>
+        <v>17.15422971224497</v>
       </c>
       <c r="H6">
-        <v>13.64143184908957</v>
+        <v>8.211082637118212</v>
       </c>
       <c r="I6">
-        <v>19.79510040228066</v>
+        <v>12.38597938600578</v>
       </c>
       <c r="J6">
-        <v>7.916466876298786</v>
+        <v>4.938941190749076</v>
       </c>
       <c r="K6">
-        <v>8.061727029148576</v>
+        <v>10.32110086910142</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.37527485998144</v>
+        <v>13.63430803494009</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>20.27614633518924</v>
+        <v>12.60502337408919</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.995005732060852</v>
+        <v>11.34815846174865</v>
       </c>
       <c r="C7">
-        <v>5.416420481359596</v>
+        <v>6.553549519553205</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22.25488992560476</v>
+        <v>17.01050694850565</v>
       </c>
       <c r="F7">
-        <v>38.59146240893893</v>
+        <v>27.69212588065788</v>
       </c>
       <c r="G7">
-        <v>25.3185375878033</v>
+        <v>17.08599505056255</v>
       </c>
       <c r="H7">
-        <v>13.62450283700764</v>
+        <v>8.172124717022653</v>
       </c>
       <c r="I7">
-        <v>19.76187213628571</v>
+        <v>12.30112350831733</v>
       </c>
       <c r="J7">
-        <v>7.912952645158825</v>
+        <v>4.929599731829558</v>
       </c>
       <c r="K7">
-        <v>8.135052072550444</v>
+        <v>10.48539930154807</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.41736402574745</v>
+        <v>13.876097616562</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>20.24434666759866</v>
+        <v>12.54079602335787</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.462324814130389</v>
+        <v>12.28246662063771</v>
       </c>
       <c r="C8">
-        <v>5.563568815925613</v>
+        <v>6.907306922912371</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>22.38891173574743</v>
+        <v>18.05954014445238</v>
       </c>
       <c r="F8">
-        <v>38.61006089374312</v>
+        <v>28.77573845693126</v>
       </c>
       <c r="G8">
-        <v>25.11093592411933</v>
+        <v>16.83853502437858</v>
       </c>
       <c r="H8">
-        <v>13.55415112279882</v>
+        <v>8.009156101993998</v>
       </c>
       <c r="I8">
-        <v>19.62321726006273</v>
+        <v>11.94246336884761</v>
       </c>
       <c r="J8">
-        <v>7.898300261943528</v>
+        <v>4.889882363378512</v>
       </c>
       <c r="K8">
-        <v>8.448264419146524</v>
+        <v>11.17948789764675</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.60773823555103</v>
+        <v>14.9052440159957</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>20.11295590260344</v>
+        <v>12.27880808390859</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.368074155527266</v>
+        <v>13.92877168148421</v>
       </c>
       <c r="C9">
-        <v>5.838121765437099</v>
+        <v>7.552701146504185</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>22.68609888210649</v>
+        <v>20.03584355643702</v>
       </c>
       <c r="F9">
-        <v>38.72534833190472</v>
+        <v>30.98363851451195</v>
       </c>
       <c r="G9">
-        <v>24.76859894942467</v>
+        <v>16.57121241712451</v>
       </c>
       <c r="H9">
-        <v>13.43179072952696</v>
+        <v>7.72331699151579</v>
       </c>
       <c r="I9">
-        <v>19.37988609310141</v>
+        <v>11.29826894315082</v>
       </c>
       <c r="J9">
-        <v>7.872623003976971</v>
+        <v>4.817281282837714</v>
       </c>
       <c r="K9">
-        <v>9.021522394556214</v>
+        <v>12.42352027339003</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.9955442734629</v>
+        <v>16.77489051530426</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.88742560650606</v>
+        <v>11.84946886916742</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.968994313442431</v>
+        <v>15.02323039020942</v>
       </c>
       <c r="C10">
-        <v>6.029888147105962</v>
+        <v>7.994580270159807</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>22.92404823457025</v>
+        <v>21.42677642311419</v>
       </c>
       <c r="F10">
-        <v>38.85771355008528</v>
+        <v>32.64276038221789</v>
       </c>
       <c r="G10">
-        <v>24.55708336931445</v>
+        <v>16.53122664287377</v>
       </c>
       <c r="H10">
-        <v>13.35136060265258</v>
+        <v>7.535639119250538</v>
       </c>
       <c r="I10">
-        <v>19.21844218284438</v>
+        <v>10.86391390863331</v>
       </c>
       <c r="J10">
-        <v>7.855604373484957</v>
+        <v>4.767040702099071</v>
       </c>
       <c r="K10">
-        <v>9.414850705832615</v>
+        <v>13.26235327364452</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.28726027095177</v>
+        <v>18.18446629825914</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.74132797419729</v>
+        <v>11.59328521096506</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.22802594857529</v>
+        <v>15.49600131633736</v>
       </c>
       <c r="C11">
-        <v>6.114698418609207</v>
+        <v>8.188145717810897</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>23.03624065245907</v>
+        <v>22.04452107862284</v>
       </c>
       <c r="F11">
-        <v>38.92815711835993</v>
+        <v>33.40308338143399</v>
       </c>
       <c r="G11">
-        <v>24.46965591271798</v>
+        <v>16.55200819982183</v>
       </c>
       <c r="H11">
-        <v>13.3168181955866</v>
+        <v>7.455567654386276</v>
       </c>
       <c r="I11">
-        <v>19.14874290209453</v>
+        <v>10.67559601730288</v>
       </c>
       <c r="J11">
-        <v>7.848259577002289</v>
+        <v>4.744830106175851</v>
       </c>
       <c r="K11">
-        <v>9.587224129739877</v>
+        <v>13.62710913652134</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.42100377465212</v>
+        <v>18.82974337865674</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.67912430822642</v>
+        <v>11.49153331732906</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.324034034912824</v>
+        <v>15.67141657591364</v>
       </c>
       <c r="C12">
-        <v>6.146444604938521</v>
+        <v>8.260344583950573</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>23.079264507856</v>
+        <v>22.27618322169729</v>
       </c>
       <c r="F12">
-        <v>38.95628971968278</v>
+        <v>33.6916255255239</v>
       </c>
       <c r="G12">
-        <v>24.43782298496649</v>
+        <v>16.56587922179655</v>
       </c>
       <c r="H12">
-        <v>13.30403146667026</v>
+        <v>7.426054173022282</v>
       </c>
       <c r="I12">
-        <v>19.12288656624877</v>
+        <v>10.60570497873079</v>
       </c>
       <c r="J12">
-        <v>7.845535125533148</v>
+        <v>4.736509821808461</v>
       </c>
       <c r="K12">
-        <v>9.651517746965215</v>
+        <v>13.76278167236074</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.47176128638434</v>
+        <v>19.06914018180759</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.65618209756795</v>
+        <v>11.45530661588045</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.303449835467315</v>
+        <v>15.63379841207466</v>
       </c>
       <c r="C13">
-        <v>6.139624251281804</v>
+        <v>8.244844597893957</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>23.06997504481071</v>
+        <v>22.22639274247687</v>
       </c>
       <c r="F13">
-        <v>38.95016629549443</v>
+        <v>33.62945757540291</v>
       </c>
       <c r="G13">
-        <v>24.44462196225364</v>
+        <v>16.56261879703292</v>
       </c>
       <c r="H13">
-        <v>13.3067722604396</v>
+        <v>7.432373722812027</v>
       </c>
       <c r="I13">
-        <v>19.12843130908646</v>
+        <v>10.62069251050304</v>
       </c>
       <c r="J13">
-        <v>7.846119359581713</v>
+        <v>4.738297760544089</v>
       </c>
       <c r="K13">
-        <v>9.637715135283509</v>
+        <v>13.73367165400336</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.46082537939</v>
+        <v>19.01780117658204</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.66109583737756</v>
+        <v>11.46300320071137</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.235966411847366</v>
+        <v>15.51050523263903</v>
       </c>
       <c r="C14">
-        <v>6.11731771851834</v>
+        <v>8.194107756918228</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>23.03976961594649</v>
+        <v>22.06362595516627</v>
       </c>
       <c r="F14">
-        <v>38.93044248747621</v>
+        <v>33.42681032327083</v>
       </c>
       <c r="G14">
-        <v>24.46701141132653</v>
+        <v>16.55302688570962</v>
       </c>
       <c r="H14">
-        <v>13.31576033930451</v>
+        <v>7.453123094071729</v>
       </c>
       <c r="I14">
-        <v>19.14660492296904</v>
+        <v>10.66981700659776</v>
       </c>
       <c r="J14">
-        <v>7.8480342964414</v>
+        <v>4.744143793028529</v>
       </c>
       <c r="K14">
-        <v>9.59253345775867</v>
+        <v>13.63832030120168</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.42517760247259</v>
+        <v>18.8495376487691</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.67722454899845</v>
+        <v>11.48850566736436</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.194359247426835</v>
+        <v>15.43451414149491</v>
       </c>
       <c r="C15">
-        <v>6.103605593256697</v>
+        <v>8.162885938540802</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>23.02133724682988</v>
+        <v>21.96362902306542</v>
       </c>
       <c r="F15">
-        <v>38.91855040375157</v>
+        <v>33.30275953655241</v>
       </c>
       <c r="G15">
-        <v>24.48089178845801</v>
+        <v>16.54794462850633</v>
       </c>
       <c r="H15">
-        <v>13.32130403707739</v>
+        <v>7.465939320986053</v>
       </c>
       <c r="I15">
-        <v>19.15780672927851</v>
+        <v>10.70009507849429</v>
       </c>
       <c r="J15">
-        <v>7.849214648972366</v>
+        <v>4.747736359793683</v>
       </c>
       <c r="K15">
-        <v>9.564729630923775</v>
+        <v>13.57959465591503</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.40335574126955</v>
+        <v>18.7458279083232</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.68718370270821</v>
+        <v>11.50443231328197</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.951775725543754</v>
+        <v>14.99182812378098</v>
       </c>
       <c r="C16">
-        <v>6.024294975667384</v>
+        <v>7.981777811700954</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>22.91679320992696</v>
+        <v>21.3860936749834</v>
       </c>
       <c r="F16">
-        <v>38.85331460608744</v>
+        <v>32.5931679062622</v>
       </c>
       <c r="G16">
-        <v>24.56297470404293</v>
+        <v>16.53068708308665</v>
       </c>
       <c r="H16">
-        <v>13.35365915668825</v>
+        <v>7.540982444078646</v>
       </c>
       <c r="I16">
-        <v>19.22307242451296</v>
+        <v>10.87641464390724</v>
       </c>
       <c r="J16">
-        <v>7.856092343119636</v>
+        <v>4.768504988792277</v>
       </c>
       <c r="K16">
-        <v>9.403450475367684</v>
+        <v>13.2381739380483</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.27853751568466</v>
+        <v>18.1415990020034</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.74547885939008</v>
+        <v>11.60024739822374</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.799271806434271</v>
+        <v>14.71382039841449</v>
       </c>
       <c r="C17">
-        <v>5.975003990763542</v>
+        <v>7.868743593896324</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>22.85364991604744</v>
+        <v>21.02786697514416</v>
       </c>
       <c r="F17">
-        <v>38.81590542316158</v>
+        <v>32.15915008191425</v>
       </c>
       <c r="G17">
-        <v>24.6155886457056</v>
+        <v>16.53036952374585</v>
       </c>
       <c r="H17">
-        <v>13.37403160338387</v>
+        <v>7.588407899182363</v>
       </c>
       <c r="I17">
-        <v>19.26406868364441</v>
+        <v>10.98701341293762</v>
       </c>
       <c r="J17">
-        <v>7.860413116316048</v>
+        <v>4.781409278129687</v>
       </c>
       <c r="K17">
-        <v>9.302804018237381</v>
+        <v>13.0243861247659</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.20220509236995</v>
+        <v>17.76203011561563</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.7823319149596</v>
+        <v>11.66293649339379</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.71020767850141</v>
+        <v>14.55155447105105</v>
       </c>
       <c r="C18">
-        <v>5.946425999456067</v>
+        <v>7.803029638002839</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>22.81770495861119</v>
+        <v>20.82041725950899</v>
       </c>
       <c r="F18">
-        <v>38.79535250055734</v>
+        <v>31.9100487072482</v>
       </c>
       <c r="G18">
-        <v>24.64667776340059</v>
+        <v>16.53383206830231</v>
       </c>
       <c r="H18">
-        <v>13.38594186779433</v>
+        <v>7.61618200345008</v>
       </c>
       <c r="I18">
-        <v>19.28800094606447</v>
+        <v>11.0514935683198</v>
       </c>
       <c r="J18">
-        <v>7.86293569814977</v>
+        <v>4.78889224860015</v>
       </c>
       <c r="K18">
-        <v>9.244299988401124</v>
+        <v>12.89983784203869</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.15840089709386</v>
+        <v>17.54042382123696</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.80392944223079</v>
+        <v>11.70037392727662</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.679821312665172</v>
+        <v>14.49620834081183</v>
       </c>
       <c r="C19">
-        <v>5.936711635312024</v>
+        <v>7.78066084448837</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>22.80559960306823</v>
+        <v>20.74994043741851</v>
       </c>
       <c r="F19">
-        <v>38.78855956805618</v>
+        <v>31.82580489610268</v>
       </c>
       <c r="G19">
-        <v>24.65734574280392</v>
+        <v>16.53561811263879</v>
       </c>
       <c r="H19">
-        <v>13.39000756660071</v>
+        <v>7.625669779994119</v>
       </c>
       <c r="I19">
-        <v>19.29616453406897</v>
+        <v>11.07347187099394</v>
       </c>
       <c r="J19">
-        <v>7.863796229489564</v>
+        <v>4.791436356753111</v>
       </c>
       <c r="K19">
-        <v>9.22438715497389</v>
+        <v>12.85739715054617</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.1435879130847</v>
+        <v>17.46482512598984</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.8113107769959</v>
+        <v>11.71328147576731</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.815645779876183</v>
+        <v>14.74365942611962</v>
       </c>
       <c r="C20">
-        <v>5.980274762383481</v>
+        <v>7.880848922779037</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>22.86033318730681</v>
+        <v>21.06614733289374</v>
       </c>
       <c r="F20">
-        <v>38.81978803421748</v>
+        <v>32.2052981127043</v>
       </c>
       <c r="G20">
-        <v>24.60990214345015</v>
+        <v>16.5300231309362</v>
       </c>
       <c r="H20">
-        <v>13.37184299437668</v>
+        <v>7.583307710327697</v>
       </c>
       <c r="I20">
-        <v>19.25966810680963</v>
+        <v>10.97514970285319</v>
       </c>
       <c r="J20">
-        <v>7.859949294879271</v>
+        <v>4.7800293214886</v>
       </c>
       <c r="K20">
-        <v>9.313581928655189</v>
+        <v>13.04730831781729</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.21032071386303</v>
+        <v>17.80277575911342</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.77836737527851</v>
+        <v>11.65611902884409</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.255844564887578</v>
+        <v>15.54681746640343</v>
       </c>
       <c r="C21">
-        <v>6.123879878326207</v>
+        <v>8.209040458200255</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>23.04862728719001</v>
+        <v>22.11149667147336</v>
       </c>
       <c r="F21">
-        <v>38.93619642178712</v>
+        <v>33.48631706693736</v>
       </c>
       <c r="G21">
-        <v>24.46040043567416</v>
+        <v>16.5556783055451</v>
       </c>
       <c r="H21">
-        <v>13.31311235424259</v>
+        <v>7.447006189191782</v>
       </c>
       <c r="I21">
-        <v>19.14125231746783</v>
+        <v>10.65534861476351</v>
       </c>
       <c r="J21">
-        <v>7.847470291658666</v>
+        <v>4.742424236791802</v>
       </c>
       <c r="K21">
-        <v>9.605831304237999</v>
+        <v>13.66639407595619</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.43564548691619</v>
+        <v>18.89909470909324</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.67247051275484</v>
+        <v>11.4809509398388</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.531400524001347</v>
+        <v>16.05067292058541</v>
       </c>
       <c r="C22">
-        <v>6.21557104663683</v>
+        <v>8.417110571559547</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>23.17481623936514</v>
+        <v>22.7814650698302</v>
       </c>
       <c r="F22">
-        <v>39.02076161234474</v>
+        <v>34.32711416359571</v>
       </c>
       <c r="G22">
-        <v>24.37012247708649</v>
+        <v>16.60759694053362</v>
       </c>
       <c r="H22">
-        <v>13.27644038808979</v>
+        <v>7.362658984630929</v>
       </c>
       <c r="I22">
-        <v>19.0669919961428</v>
+        <v>10.45467422120774</v>
       </c>
       <c r="J22">
-        <v>7.839645879002993</v>
+        <v>4.71837287545951</v>
       </c>
       <c r="K22">
-        <v>9.791103456077757</v>
+        <v>14.05669835241482</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.58354217920546</v>
+        <v>19.5867484583963</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.60683406084135</v>
+        <v>11.3799939027104</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.385447557255524</v>
+        <v>15.78368141994114</v>
       </c>
       <c r="C23">
-        <v>6.166838177437064</v>
+        <v>8.306655370115418</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>23.10719034278075</v>
+        <v>22.42512868731423</v>
       </c>
       <c r="F23">
-        <v>38.97485624063095</v>
+        <v>33.87808894897061</v>
       </c>
       <c r="G23">
-        <v>24.4176224804531</v>
+        <v>16.57654429812248</v>
       </c>
       <c r="H23">
-        <v>13.29585640519746</v>
+        <v>7.407227173554684</v>
       </c>
       <c r="I23">
-        <v>19.10633989595254</v>
+        <v>10.56098226433581</v>
       </c>
       <c r="J23">
-        <v>7.84379167459342</v>
+        <v>4.731162197685899</v>
       </c>
       <c r="K23">
-        <v>9.692756030137707</v>
+        <v>13.84970263158298</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.50456139335996</v>
+        <v>19.22235350870372</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.64153822680873</v>
+        <v>11.43257642352141</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.808247426910929</v>
+        <v>14.73017678768878</v>
       </c>
       <c r="C24">
-        <v>5.97789259233352</v>
+        <v>7.875378372224969</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>22.85731056627283</v>
+        <v>21.04884544810341</v>
       </c>
       <c r="F24">
-        <v>38.81802973271061</v>
+        <v>32.18443326200031</v>
       </c>
       <c r="G24">
-        <v>24.61247039323921</v>
+        <v>16.53016841179644</v>
       </c>
       <c r="H24">
-        <v>13.37283184810664</v>
+        <v>7.58561192494417</v>
       </c>
       <c r="I24">
-        <v>19.26165647690283</v>
+        <v>10.98051050346924</v>
       </c>
       <c r="J24">
-        <v>7.860158868570645</v>
+        <v>4.780652999990373</v>
       </c>
       <c r="K24">
-        <v>9.308711229146359</v>
+        <v>13.03695029637485</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.20665138826028</v>
+        <v>17.78436520836607</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.78015846592855</v>
+        <v>11.65919686766098</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.134243374130893</v>
+        <v>13.50353200121698</v>
       </c>
       <c r="C25">
-        <v>5.765498443953997</v>
+        <v>7.383601082589755</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>22.60215593791549</v>
+        <v>19.51121080003514</v>
       </c>
       <c r="F25">
-        <v>38.68575416976184</v>
+        <v>30.3789289543652</v>
       </c>
       <c r="G25">
-        <v>24.85422319978396</v>
+        <v>16.61777390318681</v>
       </c>
       <c r="H25">
-        <v>13.46322683617695</v>
+        <v>7.796863962342764</v>
       </c>
       <c r="I25">
-        <v>19.44266398784188</v>
+        <v>11.46594542643196</v>
       </c>
       <c r="J25">
-        <v>7.879243936304917</v>
+        <v>4.836368402543636</v>
       </c>
       <c r="K25">
-        <v>8.871140689188458</v>
+        <v>12.09995513744314</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.88929003558171</v>
+        <v>16.28593853818756</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.94499688080817</v>
+        <v>11.95581926814483</v>
       </c>
     </row>
   </sheetData>
